--- a/2017년 구입희망도서  신청서(1차)-.xlsx
+++ b/2017년 구입희망도서  신청서(1차)-.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\CoolMessenger Files\Received Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="-408" windowWidth="16872" windowHeight="9096"/>
+    <workbookView xWindow="3855" yWindow="-405" windowWidth="16875" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="교직원용" sheetId="5" r:id="rId1"/>
-    <sheet name="학생용" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">교직원용!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">학생용!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>출판사</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>권수</t>
   </si>
@@ -46,10 +36,6 @@
   <si>
     <t>저   자</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년      반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신청자
@@ -118,13 +104,229 @@
   </si>
   <si>
     <t>민병진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽동진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한빛아카데미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자부품 백과사전. 3:감지장치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰스 플랫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한빛미디어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자부품 백과사전. 1:전력 전원 및 변환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰스 플랫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한빛미디어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자부품 백과사전. 2:신호처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초부터 시작하는 PLC: 멜섹Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정완보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한빛아카데미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기기능사 필기 알짜 이론과 문제풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍성민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의바다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대 송배전 공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진샘미디어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송변전공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정훈 외4명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문운당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이경훈 외4명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 만나는 전자기학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 만나는 전력공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박숭규 외2명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장현정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈스택을 다루는 기술(개정판)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길벗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 첫걸음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타리크 라시드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아두이노 드론 만들고 코딩하고 날리기(입문)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서민우 외5명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤써북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arduino Uno 모터제어 프로그래밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>류기주 외2명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OHM사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만들면서 배우는 워드프레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박현우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트와 Node.js를 이용한 웹 크롤링 테크닉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동규 역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이펍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬으로 웹 크롤러 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한선용 역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCS 아두이노를 이용한 펌웨어 개발 실무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오상균 외2명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광문각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작하세요! 도커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용찬호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위키북스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it! Node.js 프로그래밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지스퍼블리싱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 예제로 배우는 OpenCV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정성환 역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍릉과학출판사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -251,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,9 +486,6 @@
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -349,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,25 +797,25 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -634,49 +833,49 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>28000</v>
@@ -685,21 +884,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>24440</v>
@@ -707,278 +906,531 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
         <v>22000</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4">
         <v>14000</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4">
+        <v>23000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4">
+        <v>32000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4">
+        <v>23000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4">
+        <v>24000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4">
+        <v>23000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="4">
+        <v>25000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>17000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4">
+        <v>23000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>26000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4">
+        <v>24000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4">
+        <v>19000</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="4">
+        <v>28000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25000</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4">
+        <f>SUM(E5:E28)</f>
+        <v>640440</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -989,7 +1441,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -1000,7 +1452,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -1011,7 +1463,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -1022,7 +1474,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -1042,419 +1494,4 @@
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.51181102362204722" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="str">
-        <f>교직원용!A1</f>
-        <v>2017년 구입희망 도서 신청서(1차)</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E3:G3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.51181102362204722" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>